--- a/biology/Zoologie/Grimpeur_de_Kauai/Grimpeur_de_Kauai.xlsx
+++ b/biology/Zoologie/Grimpeur_de_Kauai/Grimpeur_de_Kauai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oreomystis bairdi
 Le Grimpeur de Kauai (Oreomystis bairdi) est une espèce d'oiseaux de la famille des Fringillidae.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Oreomystis bairdi (Stejneger, 1887)[1].
-L'espèce a été initialement classée dans le genre Oreomyza sous le protonyme Oreomyza bairdi (Stejneger, 1887)[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpeur de Kauai[1].
-Oreomystis bairdi a pour synonyme[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Oreomystis bairdi (Stejneger, 1887).
+L'espèce a été initialement classée dans le genre Oreomyza sous le protonyme Oreomyza bairdi (Stejneger, 1887).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpeur de Kauai.
+Oreomystis bairdi a pour synonyme :
 Oreomyza bairdi (Stejneger, 1887)</t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat se présente comme une association d’arbres : ohia-acacia koa Metrosideros polymorpha-Acacia koa avec d’autres essences comme l’ohia-ha Syzygium sandwicensis, le lapalapa Cheirodendron platyphyllum et l’olapa Cheirodendron trigynum, le tout pourvu d’un sous-bois dense d’arbrisseaux parsemés de mousses, de lichens et de fougères épiphytes (Ottaviani 2020).
 Alimentation
